--- a/data-raw/unhcr_2022/iati_humanitarian_scope.xlsx
+++ b/data-raw/unhcr_2022/iati_humanitarian_scope.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,7 +772,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CAN</t>
+          <t>XM-DAC-41121-2022-AME-BRA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -782,34 +782,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RREG22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Refugee and Migrant Response Plan for Venezuela 2022 (RMRP)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-COL</t>
+          <t>XM-DAC-41121-2022-AME-CAN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -846,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CRI</t>
+          <t>XM-DAC-41121-2022-AME-COL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -883,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-ECU</t>
+          <t>XM-DAC-41121-2022-AME-COL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,34 +888,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HCOL22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Colombia Plan de Respuesta Humanitario 2022</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-GTM</t>
+          <t>XM-DAC-41121-2022-AME-COL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -930,34 +920,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RREG22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Refugee and Migrant Response Plan for Venezuela 2022 (RMRP)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-HND</t>
+          <t>XM-DAC-41121-2022-AME-CRI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -994,7 +979,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-HND</t>
+          <t>XM-DAC-41121-2022-AME-ECU</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1004,24 +989,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HHND2122</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Honduras Plan de Respuesta Humanitario 2021</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-MEX</t>
+          <t>XM-DAC-41121-2022-AME-ECU</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1031,34 +1026,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RREG22</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Refugee and Migrant Response Plan for Venezuela 2022 (RMRP)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-PANMCO</t>
+          <t>XM-DAC-41121-2022-AME-GTM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1095,7 +1085,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-PER</t>
+          <t>XM-DAC-41121-2022-AME-HND</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1132,7 +1122,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-RA</t>
+          <t>XM-DAC-41121-2022-AME-HND</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1142,34 +1132,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HHND2122</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Honduras Plan de Respuesta Humanitario 2021</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-RB</t>
+          <t>XM-DAC-41121-2022-AME-HND</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1179,34 +1159,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HHND22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Honduras Plan de Respuesta Humanitario 2022</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-SLV</t>
+          <t>XM-DAC-41121-2022-AME-MEX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1243,7 +1218,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-SLV</t>
+          <t>XM-DAC-41121-2022-AME-MEX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1256,21 +1231,26 @@
           <t>2-1</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HSLV2122</t>
+          <t>RREG22</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>El Salvador Plan de Respuesta Humanitario 2021</t>
+          <t>Refugee and Migrant Response Plan for Venezuela 2022 (RMRP)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-USAMCO</t>
+          <t>XM-DAC-41121-2022-AME-PANMCO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1307,7 +1287,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-VEN</t>
+          <t>XM-DAC-41121-2022-AME-PER</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1344,7 +1324,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2022-AME-PER</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1354,29 +1334,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/document/1292</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AFGHANISTAN-REGIONAL-RRP-2022</t>
+          <t>RREG22</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Afghanistan Situation Regional Refugee Response Plan (RRP) 2022</t>
+          <t>Refugee and Migrant Response Plan for Venezuela 2022 (RMRP)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2022-AME-RA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1413,7 +1393,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2022-AME-RB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1423,24 +1403,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>HAFG22</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Afghanistan Humanitarian Response Plan 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AUSMCO</t>
+          <t>XM-DAC-41121-2022-AME-RB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1450,34 +1440,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RREG22</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Refugee and Migrant Response Plan for Venezuela 2022 (RMRP)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-BGD</t>
+          <t>XM-DAC-41121-2022-AME-SLV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1514,7 +1499,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-CHN</t>
+          <t>XM-DAC-41121-2022-AME-SLV</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1524,34 +1509,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HSLV2122</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>El Salvador Plan de Respuesta Humanitario 2021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IDN</t>
+          <t>XM-DAC-41121-2022-AME-USAMCO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1588,7 +1563,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IND</t>
+          <t>XM-DAC-41121-2022-AME-VEN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1625,7 +1600,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IRN</t>
+          <t>XM-DAC-41121-2022-AME-VEN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1635,29 +1610,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/document/1292</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AFGHANISTAN-REGIONAL-RRP-2022</t>
+          <t>HVEN22</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Afghanistan Situation Regional Refugee Response Plan (RRP) 2022</t>
+          <t>Venezuela Plan de Respuesta Humanitario 2022</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IRN</t>
+          <t>XM-DAC-41121-2022-ASO-AFG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1694,7 +1669,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-JPN</t>
+          <t>XM-DAC-41121-2022-ASO-AFG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1704,34 +1679,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HAFG22</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Afghanistan Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2022-ASO-AFG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1741,29 +1706,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/document/1292</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AFGHANISTAN-REGIONAL-RRP-2022</t>
+          <t>RAFG22</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Afghanistan Situation Regional Refugee Response Plan (RRP) 2022</t>
+          <t>Afghanistan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2022-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1800,7 +1765,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KOR</t>
+          <t>XM-DAC-41121-2022-ASO-BGD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1837,7 +1802,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-LKA</t>
+          <t>XM-DAC-41121-2022-ASO-BGD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1847,34 +1812,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/2022-jrp-rohingya</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RBGD22</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Bangladesh: Rohingya Humanitarian Crisis Joint Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MMR</t>
+          <t>XM-DAC-41121-2022-ASO-CHN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1911,7 +1871,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MYS</t>
+          <t>XM-DAC-41121-2022-ASO-IDN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1948,7 +1908,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-NPL</t>
+          <t>XM-DAC-41121-2022-ASO-IND</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1985,7 +1945,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PAK</t>
+          <t>XM-DAC-41121-2022-ASO-IRN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2000,24 +1960,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/document/1292</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AFGHANISTAN-REGIONAL-RRP-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Afghanistan Situation Regional Refugee Response Plan (RRP) 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PAK</t>
+          <t>XM-DAC-41121-2022-ASO-IRN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2027,34 +1992,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RAFG22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Afghanistan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PHL</t>
+          <t>XM-DAC-41121-2022-ASO-JPN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2091,7 +2051,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-RA</t>
+          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2128,7 +2088,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-RB</t>
+          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2138,34 +2098,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RAFG22</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Afghanistan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-ASO-KOR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2202,7 +2157,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-TJK</t>
+          <t>XM-DAC-41121-2022-ASO-LKA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2217,24 +2172,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/document/1292</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AFGHANISTAN-REGIONAL-RRP-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Afghanistan Situation Regional Refugee Response Plan (RRP) 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-TJK</t>
+          <t>XM-DAC-41121-2022-ASO-MMR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2271,7 +2231,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-BDI</t>
+          <t>XM-DAC-41121-2022-ASO-MMR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2281,34 +2241,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HMMR22</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Myanmar Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-DJI</t>
+          <t>XM-DAC-41121-2022-ASO-MYS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2345,7 +2300,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ERI</t>
+          <t>XM-DAC-41121-2022-ASO-NPL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2382,44 +2337,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ETH</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>FL-2022-000270-PAK</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Pakistan: Flood</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-KEN</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2456,7 +2401,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-OO</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2466,34 +2411,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>OPAK2223</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Pakistan Floods Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RA</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2508,29 +2448,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/pakistan-flood-supplementary-appeal</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>PAKISTAN-FLOOD-RESPONSE-2022</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Pakistan Flood Response Supplementary Appeal</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RB</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2545,29 +2480,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/pakistan-flood-response-unhcr-supplementary-appeal</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>PAKISTAN-FLOOD-RESPONSE-2023</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Pakistan Flood Response, UNHCR Supplementary Appeal, September 2022-December 2023</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RWA</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2577,34 +2507,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RAFG22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Afghanistan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SDN</t>
+          <t>XM-DAC-41121-2022-ASO-PHL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2641,7 +2566,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SOM</t>
+          <t>XM-DAC-41121-2022-ASO-RA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2678,7 +2603,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SSD</t>
+          <t>XM-DAC-41121-2022-ASO-RB</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2715,7 +2640,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-TZA</t>
+          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2752,7 +2677,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-UGA</t>
+          <t>XM-DAC-41121-2022-ASO-TJK</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2789,7 +2714,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ALB</t>
+          <t>XM-DAC-41121-2022-ASO-TJK</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2799,34 +2724,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RAFG22</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Afghanistan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ARM</t>
+          <t>XM-DAC-41121-2022-EHGL-BDI</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2863,7 +2783,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-AZE</t>
+          <t>XM-DAC-41121-2022-EHGL-BDI</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2873,34 +2793,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HBDI22</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Burundi Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BELMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-BDI</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2910,34 +2820,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RDRCRRP22</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BGR</t>
+          <t>XM-DAC-41121-2022-EHGL-DJI</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2974,7 +2879,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BIH</t>
+          <t>XM-DAC-41121-2022-EHGL-ERI</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3011,7 +2916,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-CYP</t>
+          <t>XM-DAC-41121-2022-EHGL-ETH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3048,7 +2953,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-DEU</t>
+          <t>XM-DAC-41121-2022-EHGL-ETH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3058,34 +2963,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HETH22</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ethiopia Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ESP</t>
+          <t>XM-DAC-41121-2022-EHGL-ETH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3095,34 +2995,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSSDRRP22</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>South Sudan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-FRA</t>
+          <t>XM-DAC-41121-2022-EHGL-KEN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3159,7 +3054,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GBR</t>
+          <t>XM-DAC-41121-2022-EHGL-KEN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3169,34 +3064,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSSDRRP22</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>South Sudan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GEO</t>
+          <t>XM-DAC-41121-2022-EHGL-OO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3233,7 +3123,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GRC</t>
+          <t>XM-DAC-41121-2022-EHGL-RA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3270,7 +3160,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HRV</t>
+          <t>XM-DAC-41121-2022-EHGL-RB</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3307,7 +3197,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-RWA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3344,7 +3234,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-RWA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3357,53 +3247,58 @@
           <t>2-1</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>RUKRN22</t>
+          <t>RDRCRRP22</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UKRAINE-SITUATION-2022</t>
+          <t>FL-2022-000277-SDN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Ukraine Situation - Supplementary Appeal 2022</t>
+          <t>Sudan: Floods</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ITAMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3440,7 +3335,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-KOS</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3450,34 +3345,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HSDN22</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Sudan Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MKD</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3487,34 +3377,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSSDRRP22</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>South Sudan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MLT</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3529,29 +3414,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/document/1765</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>SDN-COUNTRY-RRP-2022</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Sudan - Country Refugee Response Plan - 2022</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MNE</t>
+          <t>XM-DAC-41121-2022-EHGL-SOM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3588,7 +3468,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-OO</t>
+          <t>XM-DAC-41121-2022-EHGL-SOM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3598,34 +3478,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HSOM22</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Somalia Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-POL</t>
+          <t>XM-DAC-41121-2022-EHGL-SSD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3662,7 +3537,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-POL</t>
+          <t>XM-DAC-41121-2022-EHGL-SSD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3675,21 +3550,26 @@
           <t>2-1</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>RUKRN22</t>
+          <t>HSSD22</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
+          <t>South Sudan Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-POL</t>
+          <t>XM-DAC-41121-2022-EHGL-TZA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3704,24 +3584,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>UKRAINE-SITUATION-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ukraine Situation - Supplementary Appeal 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RA</t>
+          <t>XM-DAC-41121-2022-EHGL-TZA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3731,71 +3616,56 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RDRCRRP22</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RB</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>CE-2022-000195-UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Uganda: Complex Emergency</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RB</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3805,24 +3675,34 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>RUKRN22</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RB</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3832,29 +3712,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>UKRAINE-SITUATION-2022</t>
+          <t>RDRCRRP22</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Ukraine Situation - Supplementary Appeal 2022</t>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ROU</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3864,34 +3744,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSSDRRP22</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>South Sudan Regional Refugee Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ROU</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3901,24 +3776,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/document/2252</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>RUKRN22</t>
+          <t>UGANDA-COUNTRY-RRP-2022</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
+          <t>Uganda Country Refugee Response Plan - Emergency Appeal - April-June 2022</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ROU</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3933,24 +3813,24 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
+          <t>https://reporting.unhcr.org/document/3123</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>UKRAINE-SITUATION-2022</t>
+          <t>UGANDA-COUNTRY-RRP-2022-APR-DEC</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Ukraine Situation - Supplementary Appeal 2022</t>
+          <t>Uganda: 2022 Revised Refugee Response Plan | Emergency Appeal</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RUS</t>
+          <t>XM-DAC-41121-2022-EUR-ALB</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3987,7 +3867,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SRB</t>
+          <t>XM-DAC-41121-2022-EUR-ARM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4024,7 +3904,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-EUR-AZE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4061,7 +3941,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-TUR</t>
+          <t>XM-DAC-41121-2022-EUR-BELMCO</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4098,7 +3978,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-TUR</t>
+          <t>XM-DAC-41121-2022-EUR-BGR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4118,19 +3998,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-UKR</t>
+          <t>XM-DAC-41121-2022-EUR-BIH</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4140,24 +4025,34 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FUKR22</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Ukraine Flash Appeal 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-UKR</t>
+          <t>XM-DAC-41121-2022-EUR-CYP</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4194,7 +4089,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-UKR</t>
+          <t>XM-DAC-41121-2022-EUR-DEU</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4204,24 +4099,34 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HUKR22</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Ukraine Humanitarian Response Plan 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-UKR</t>
+          <t>XM-DAC-41121-2022-EUR-ESP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4236,24 +4141,29 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>UKRAINE-SITUATION-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Ukraine Situation - Supplementary Appeal 2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-GLOBALPROG</t>
+          <t>XM-DAC-41121-2022-EUR-FRA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4290,7 +4200,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-HQ</t>
+          <t>XM-DAC-41121-2022-EUR-GBR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4327,7 +4237,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-JPO</t>
+          <t>XM-DAC-41121-2022-EUR-GEO</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4364,7 +4274,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-DZA</t>
+          <t>XM-DAC-41121-2022-EUR-GRC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4401,7 +4311,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-EGY</t>
+          <t>XM-DAC-41121-2022-EUR-HRV</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4438,7 +4348,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-EGY</t>
+          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4458,19 +4368,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-ESH</t>
+          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4480,34 +4395,24 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RUKRN22</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-IRQ</t>
+          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4522,29 +4427,24 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-IRQ</t>
+          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4559,24 +4459,24 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-supplementary-appeal-2022-addendum</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+          <t>UKRAINE-SITUATION-2022-REVISED</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+          <t>Ukraine Situation - Revised Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-ISR</t>
+          <t>XM-DAC-41121-2022-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4613,7 +4513,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-JOR</t>
+          <t>XM-DAC-41121-2022-EUR-KOS</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4650,7 +4550,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-JOR</t>
+          <t>XM-DAC-41121-2022-EUR-MKD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4670,19 +4570,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-LBN</t>
+          <t>XM-DAC-41121-2022-EUR-MLT</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4719,7 +4624,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-LBN</t>
+          <t>XM-DAC-41121-2022-EUR-MNE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4729,24 +4634,34 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>OLBN2122</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lebanon Emergency Response Plan 2021</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-LBN</t>
+          <t>XM-DAC-41121-2022-EUR-OO</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4766,19 +4681,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-LBY</t>
+          <t>XM-DAC-41121-2022-EUR-POL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4815,7 +4735,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-MAR</t>
+          <t>XM-DAC-41121-2022-EUR-POL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4825,34 +4745,24 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RUKRN22</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-MRT</t>
+          <t>XM-DAC-41121-2022-EUR-POL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4867,29 +4777,24 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-OO</t>
+          <t>XM-DAC-41121-2022-EUR-POL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4904,29 +4809,24 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-supplementary-appeal-2022-addendum</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022-REVISED</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Revised Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-RA</t>
+          <t>XM-DAC-41121-2022-EUR-RA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4963,7 +4863,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-RB</t>
+          <t>XM-DAC-41121-2022-EUR-RB</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5000,7 +4900,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-SAUMCO</t>
+          <t>XM-DAC-41121-2022-EUR-RB</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5010,34 +4910,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RUKRN22</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-SYR</t>
+          <t>XM-DAC-41121-2022-EUR-RB</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5052,29 +4942,24 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-SYR</t>
+          <t>XM-DAC-41121-2022-EUR-RB</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5089,24 +4974,24 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-supplementary-appeal-2022-addendum</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+          <t>UKRAINE-SITUATION-2022-REVISED</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+          <t>Ukraine Situation - Revised Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-TUN</t>
+          <t>XM-DAC-41121-2022-EUR-ROU</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5143,7 +5028,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-YEM</t>
+          <t>XM-DAC-41121-2022-EUR-ROU</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5153,34 +5038,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RUKRN22</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Regional Refugee Response Plan 2022 (March - August 2022)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-AGO</t>
+          <t>XM-DAC-41121-2022-EUR-ROU</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5195,29 +5070,24 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
+          <t>XM-DAC-41121-2022-EUR-ROU</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5232,29 +5102,24 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-supplementary-appeal-2022-addendum</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022-REVISED</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Revised Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-COG</t>
+          <t>XM-DAC-41121-2022-EUR-RUS</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5291,7 +5156,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-MOZ</t>
+          <t>XM-DAC-41121-2022-EUR-SRB</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5328,7 +5193,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-MWI</t>
+          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5365,7 +5230,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-RA</t>
+          <t>XM-DAC-41121-2022-EUR-TUR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5402,7 +5267,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-RB</t>
+          <t>XM-DAC-41121-2022-EUR-TUR</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5412,34 +5277,29 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSYR22</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Syria Refugee Response and Resilience Plan (3RP) 2022</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
+          <t>XM-DAC-41121-2022-EUR-TUR</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5459,24 +5319,19 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-ZMB</t>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5486,34 +5341,24 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>FUKR22</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Flash Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-ZWE</t>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5550,7 +5395,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-BFA</t>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5560,34 +5405,24 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HUKR22</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CAF</t>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5602,29 +5437,24 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-situation-supplementary-appeal</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CIV</t>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5639,29 +5469,24 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/ukraine-supplementary-appeal-2022-addendum</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>UKRAINE-SITUATION-2022-REVISED</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Ukraine Situation - Revised Supplementary Appeal 2022</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+          <t>XM-DAC-41121-2022-GLOBALPROG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5676,19 +5501,29 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/cameroon-chad-supplementary-appeal</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FAR-NORTH-CAMEROON-SITUATION-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+          <t>XM-DAC-41121-2022-HQ</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5725,7 +5560,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-GHA</t>
+          <t>XM-DAC-41121-2022-JPO</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5762,7 +5597,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-LBR</t>
+          <t>XM-DAC-41121-2022-MENA-DZA</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5799,7 +5634,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-MLI</t>
+          <t>XM-DAC-41121-2022-MENA-EGY</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5836,7 +5671,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-NER</t>
+          <t>XM-DAC-41121-2022-MENA-EGY</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5846,34 +5681,29 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSYR22</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Syria Refugee Response and Resilience Plan (3RP) 2022</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-NGA</t>
+          <t>XM-DAC-41121-2022-MENA-EGY</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5893,24 +5723,19 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-RA</t>
+          <t>XM-DAC-41121-2022-MENA-ESH</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5947,7 +5772,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-RB</t>
+          <t>XM-DAC-41121-2022-MENA-IRQ</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5962,19 +5787,29 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/cameroon-chad-supplementary-appeal</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FAR-NORTH-CAMEROON-SITUATION-2022</t>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-RB</t>
+          <t>XM-DAC-41121-2022-MENA-IRQ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5984,34 +5819,29 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>HIRQ22</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Iraq Humanitarian Response Plan 2022</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-SENMCO</t>
+          <t>XM-DAC-41121-2022-MENA-IRQ</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6021,34 +5851,29 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://reporting.unhcr.org/publications</t>
+          <t>https://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GLOBAL-APPEAL-2022</t>
+          <t>RSYR22</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+          <t>Syria Refugee Response and Resilience Plan (3RP) 2022</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-TCD</t>
+          <t>XM-DAC-41121-2022-MENA-IRQ</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6063,49 +5888,2326 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://reporting.unhcr.org/cameroon-chad-supplementary-appeal</t>
+          <t>http://reporting.unhcr.org/publications</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FAR-NORTH-CAMEROON-SITUATION-2022</t>
+          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>XM-DAC-41121-2022-MENA-ISR</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>RSYR22</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Syria Refugee Response and Resilience Plan (3RP) 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>OLBN2122</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Lebanon Emergency Response Plan 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RSYR22</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Syria Refugee Response and Resilience Plan (3RP) 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>HLBY22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Libya Humanitarian Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-MAR</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-MRT</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-OO</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-RA</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-RB</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SAUMCO</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>HSYR22</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Syria Humanitarian Response Plan 2022 - 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>RSYR22</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Syria Refugee Response and Resilience Plan (3RP) 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>SYRIA-3RP-REGIONAL-STRATEGIC-OVERVIEW-2021-2022</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Syria 3RP Regional Strategic Overview 2021-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>HYEM22</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Yemen Humanitarian Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-AGO</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-AGO</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>RDRCRRP22</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COD</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://glidenumber.net</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>CE-2022-000235-COD</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Democratic Republic of the Congo: Complex Emergency</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COD</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COD</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>HCOD22</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>République Démocratique du Congo Plan de Réponse Humanitaire 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COD</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RSSDRRP22</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>South Sudan Regional Refugee Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COG</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://glidenumber.net</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>CE-2022-000317-COG</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Republic of the Congo: Complex Emergency</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COG</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COG</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RDRCRRP22</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>FMOZ22</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Mozambique Gombe Emergency Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>HMOZ22</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Mozambique Humanitarian Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>TC-2022-000184-MOZ</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Mozambique: Tropical Cyclone</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MWI</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-RA</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-RB</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/drc-rrrp-2022</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RDRCRRP22</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Democratic Republic of Congo Regional Refugee Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZWE</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>CE-2022-000216-BFA</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Burkina Faso: Complex Emergency</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>HBFA22</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Burkina Faso Plan de Réponse Humanitaire 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>HCAF22</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>République Centrafricaine Plan de Réponse Humanitaire 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CIV</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/cameroon-chad-supplementary-appeal</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>FAR-NORTH-CAMEROON-SITUATION-2022</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Cameroon and Chad Emergency: Supplementary Appeal January - June 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>HCMR22</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Cameroon Humanitarian Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-GHA</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-LBR</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>HMLI22</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Mali Plan de Réponse Humanitaire 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-NER</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-NER</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>HNER22</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Niger Plan de Réponse Humanitaire 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>HNGA22</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Nigeria Humanitarian Response Plan 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-RA</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-RB</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/cameroon-chad-supplementary-appeal</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>FAR-NORTH-CAMEROON-SITUATION-2022</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Cameroon and Chad Emergency: Supplementary Appeal January - June 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-RB</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-SENMCO</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
           <t>XM-DAC-41121-2022-WCA-TCD</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>http://reporting.unhcr.org/publications</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>GLOBAL-APPEAL-2022</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Global Appeal 2022</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Appel global 2022</t>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/cameroon-chad-supplementary-appeal</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>FAR-NORTH-CAMEROON-SITUATION-2022</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Cameroon and Chad Emergency: Supplementary Appeal January - June 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-TCD</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>http://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>GLOBAL-APPEAL-2022</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Global Appeal 2022</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Appel global 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-TCD</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://reporting.unhcr.org/publications</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>HTCD22</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Tchad Plan de Réponse Humanitaire 2022</t>
         </is>
       </c>
     </row>
